--- a/functions/samples.xlsx
+++ b/functions/samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/excel2firestore/functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645745D5-EA3F-BE47-BCF3-22CA03EC32E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ACE58D-AA18-374F-9CE6-9985E0FA8077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33900" yWindow="1480" windowWidth="32080" windowHeight="18080" xr2:uid="{CFD8E4D2-D3C0-CB4C-A8EE-04534A7FE425}"/>
+    <workbookView xWindow="-33900" yWindow="1480" windowWidth="32080" windowHeight="18080" activeTab="1" xr2:uid="{CFD8E4D2-D3C0-CB4C-A8EE-04534A7FE425}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>d001</t>
     <phoneticPr fontId="1"/>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E509AD90-839D-8F48-A6A1-2287C28AEF12}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F541F98A-D486-FE43-944D-8B0F79D7B607}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
@@ -915,9 +915,7 @@
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
@@ -941,9 +939,7 @@
       <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">

--- a/functions/samples.xlsx
+++ b/functions/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/excel2firestore/functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ACE58D-AA18-374F-9CE6-9985E0FA8077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DE006E-1AA9-ED42-9671-132518563878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33900" yWindow="1480" windowWidth="32080" windowHeight="18080" activeTab="1" xr2:uid="{CFD8E4D2-D3C0-CB4C-A8EE-04534A7FE425}"/>
+    <workbookView xWindow="-33900" yWindow="1480" windowWidth="32080" windowHeight="18080" activeTab="2" xr2:uid="{CFD8E4D2-D3C0-CB4C-A8EE-04534A7FE425}"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>d001</t>
     <phoneticPr fontId="1"/>
@@ -298,6 +298,12 @@
   <si>
     <t>PB</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -404,10 +410,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F541F98A-D486-FE43-944D-8B0F79D7B607}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1048,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D44171-E2A8-1E4B-8AEC-28BAF39A46E4}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="20"/>
@@ -1104,7 +1113,7 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="1">
@@ -1113,14 +1122,14 @@
       <c r="F2" s="1">
         <v>43829.999988425923</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H2" s="2">
         <v>43466.541666666664</v>
       </c>
-      <c r="I2" s="11" t="b">
-        <v>0</v>
+      <c r="I2" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1133,7 +1142,7 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1">
@@ -1142,13 +1151,13 @@
       <c r="F3" s="1">
         <v>43829.999988425923</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>43466.791666666664</v>
       </c>
-      <c r="I3" s="11" t="b">
+      <c r="I3" s="13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1162,7 +1171,7 @@
       <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1">
@@ -1171,13 +1180,13 @@
       <c r="F4" s="1">
         <v>43829.999988425923</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="2">
         <v>43466.833333333336</v>
       </c>
-      <c r="I4" s="11" t="b">
+      <c r="I4" s="13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1191,7 +1200,7 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="1">
@@ -1200,14 +1209,14 @@
       <c r="F5" s="1">
         <v>43829.999988425923</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="2">
         <v>43709.458333333336</v>
       </c>
-      <c r="I5" s="11" t="b">
-        <v>0</v>
+      <c r="I5" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
